--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04631378005926189</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.59528540308695</v>
+        <v>-2.595399458253502</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.166335470243454</v>
+        <v>-0.1750396482213256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1658779537297084</v>
+        <v>0.1600684592836832</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.03537713764804278</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.718694313137445</v>
+        <v>-2.717780042043</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2592892111418883</v>
+        <v>-0.2716949977069438</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1952065993918155</v>
+        <v>0.190508990339502</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02033855456645567</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.936462221325602</v>
+        <v>-2.930864979275085</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3750863111465676</v>
+        <v>-0.3898384625550729</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1908956800485603</v>
+        <v>0.1865225487962767</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.004707061064765185</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.100751979616151</v>
+        <v>-3.09236099590579</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4447087563973584</v>
+        <v>-0.4610088864834502</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2486014951170475</v>
+        <v>0.246181939792388</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01030247878729425</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.290015549936826</v>
+        <v>-3.282314691472205</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4894098427962236</v>
+        <v>-0.5065534931782579</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2435470824688364</v>
+        <v>0.2449633182802454</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.02527513597122288</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.084397871550167</v>
+        <v>-3.079219645004576</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.528438056980655</v>
+        <v>-0.5435695790500976</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2501769202250878</v>
+        <v>0.2518352945451657</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.04145755379517704</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.758087869807249</v>
+        <v>-2.752424756323643</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5432481508534514</v>
+        <v>-0.560425346872707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2646375295501074</v>
+        <v>0.2678396131030348</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.05998140146432972</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.324914886132657</v>
+        <v>-2.320031861194612</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5834468028165624</v>
+        <v>-0.6027282251705988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2547610840315261</v>
+        <v>0.2590957902811746</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.08327305113346495</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.915983809676094</v>
+        <v>-1.905280921640519</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6726269644879564</v>
+        <v>-0.692546973790548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2879310101157925</v>
+        <v>0.2920296770635395</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1148860922435549</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.339877745167625</v>
+        <v>-1.322413276509621</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8261263111258169</v>
+        <v>-0.8477754455469892</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3175207018275478</v>
+        <v>0.3240944268815384</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1565292604936061</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8206303159076401</v>
+        <v>-0.7983486937446801</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.106226282715595</v>
+        <v>-1.134367412820074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3490847067699366</v>
+        <v>0.3557426008773183</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2087030509803776</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1863408684407903</v>
+        <v>-0.1589194447348744</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.491993791710621</v>
+        <v>-1.523944486362068</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4247106012419585</v>
+        <v>0.4319649977711999</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.270335846856778</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4688011570433989</v>
+        <v>0.5001614484797537</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.846614481506153</v>
+        <v>-1.874017607591767</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5338949412693353</v>
+        <v>0.5448338686068118</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3397562720841532</v>
       </c>
       <c r="E15" t="n">
-        <v>1.049022356357887</v>
+        <v>1.083483484514829</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.208386491236557</v>
+        <v>-2.233551818359182</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6286015941927435</v>
+        <v>0.6395691878020271</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4174094113585333</v>
       </c>
       <c r="E16" t="n">
-        <v>1.654683347099536</v>
+        <v>1.692639320734245</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.636360511062548</v>
+        <v>-2.659635694007931</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7419681603005819</v>
+        <v>0.7527826638200017</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5029046036304839</v>
       </c>
       <c r="E17" t="n">
-        <v>2.184867264014291</v>
+        <v>2.224853663581893</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.913165691156533</v>
+        <v>-2.926422926986329</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8799102602366297</v>
+        <v>0.89022950816653</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5968841041980727</v>
       </c>
       <c r="E18" t="n">
-        <v>2.616667926166199</v>
+        <v>2.654830662910325</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.17604638220036</v>
+        <v>-3.183269367814749</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020433544476675</v>
+        <v>1.033727375547076</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7016340432731643</v>
       </c>
       <c r="E19" t="n">
-        <v>2.963232173742567</v>
+        <v>3.000887456483638</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.408772594985763</v>
+        <v>-3.406511619037058</v>
       </c>
       <c r="G19" t="n">
-        <v>1.122492181237605</v>
+        <v>1.13292304465135</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8156924372858281</v>
       </c>
       <c r="E20" t="n">
-        <v>3.333828515824161</v>
+        <v>3.375131124212186</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.652127285484178</v>
+        <v>-3.64703109326961</v>
       </c>
       <c r="G20" t="n">
-        <v>1.222200183710347</v>
+        <v>1.231847908975148</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9355710139485288</v>
       </c>
       <c r="E21" t="n">
-        <v>3.645977379294343</v>
+        <v>3.685180640713001</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.800780812345275</v>
+        <v>-3.792983586413728</v>
       </c>
       <c r="G21" t="n">
-        <v>1.376307621262925</v>
+        <v>1.38541068736339</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.05607962888403</v>
       </c>
       <c r="E22" t="n">
-        <v>3.859693584426862</v>
+        <v>3.899732437172665</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.9557159122562</v>
+        <v>-3.941282749361634</v>
       </c>
       <c r="G22" t="n">
-        <v>1.462129559688144</v>
+        <v>1.470449487639665</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.168695165755954</v>
       </c>
       <c r="E23" t="n">
-        <v>4.069807598042508</v>
+        <v>4.107931299863322</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.1011167321482</v>
+        <v>-4.087354786958396</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5603158100724</v>
+        <v>1.568988272175081</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.268196414900035</v>
       </c>
       <c r="E24" t="n">
-        <v>4.201312595156156</v>
+        <v>4.240887908187631</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.210044600531004</v>
+        <v>-4.195667245378361</v>
       </c>
       <c r="G24" t="n">
-        <v>1.619097525214671</v>
+        <v>1.629198421542295</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.349740833894599</v>
       </c>
       <c r="E25" t="n">
-        <v>4.307278993693011</v>
+        <v>4.343172825519634</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.173219114870649</v>
+        <v>-4.159037239294903</v>
       </c>
       <c r="G25" t="n">
-        <v>1.613332554978048</v>
+        <v>1.623155937397752</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.409329788678594</v>
       </c>
       <c r="E26" t="n">
-        <v>4.302500875111366</v>
+        <v>4.338916799037285</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.043479228195508</v>
+        <v>-4.031564427775235</v>
       </c>
       <c r="G26" t="n">
-        <v>1.570147121460902</v>
+        <v>1.581562396846919</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.445684348419514</v>
       </c>
       <c r="E27" t="n">
-        <v>4.409656618967879</v>
+        <v>4.444519684850798</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.959566646448849</v>
+        <v>-3.95422313139986</v>
       </c>
       <c r="G27" t="n">
-        <v>1.492606076063891</v>
+        <v>1.503639541106264</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.458198785976114</v>
       </c>
       <c r="E28" t="n">
-        <v>4.333825181227793</v>
+        <v>4.366268081865376</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.80746249335905</v>
+        <v>-3.803701112545545</v>
       </c>
       <c r="G28" t="n">
-        <v>1.432655752904971</v>
+        <v>1.444264373145517</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.446952419306762</v>
       </c>
       <c r="E29" t="n">
-        <v>4.260138224587153</v>
+        <v>4.292790937937538</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.741159846351799</v>
+        <v>-3.742951793300085</v>
       </c>
       <c r="G29" t="n">
-        <v>1.353855221310476</v>
+        <v>1.369169719582942</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.41427965458235</v>
       </c>
       <c r="E30" t="n">
-        <v>4.091365854282844</v>
+        <v>4.121262946015681</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.595522987157898</v>
+        <v>-3.596892259077197</v>
       </c>
       <c r="G30" t="n">
-        <v>1.268751159521789</v>
+        <v>1.284302916937511</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.362748664985861</v>
       </c>
       <c r="E31" t="n">
-        <v>3.848724770976225</v>
+        <v>3.871950550346791</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.479650256989302</v>
+        <v>-3.486755527913078</v>
       </c>
       <c r="G31" t="n">
-        <v>1.179584416105283</v>
+        <v>1.200939568760263</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.295537170933496</v>
       </c>
       <c r="E32" t="n">
-        <v>3.63004503137633</v>
+        <v>3.649169704116442</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.371839458325961</v>
+        <v>-3.384504461178635</v>
       </c>
       <c r="G32" t="n">
-        <v>1.110361468897762</v>
+        <v>1.131151835006073</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.217855569715755</v>
       </c>
       <c r="E33" t="n">
-        <v>3.43321265041755</v>
+        <v>3.450058659509331</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.239942282217164</v>
+        <v>-3.256349758342363</v>
       </c>
       <c r="G33" t="n">
-        <v>1.00707689157657</v>
+        <v>1.028669303374804</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.133508802877759</v>
       </c>
       <c r="E34" t="n">
-        <v>3.151185329489248</v>
+        <v>3.165978345583095</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.05035392913612</v>
+        <v>-3.068316093066351</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9320389606369326</v>
+        <v>0.9541607835825847</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.046355405519496</v>
       </c>
       <c r="E35" t="n">
-        <v>2.803598854858651</v>
+        <v>2.813330749176843</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.965586543560998</v>
+        <v>-2.984966773064668</v>
       </c>
       <c r="G35" t="n">
-        <v>0.884627386750599</v>
+        <v>0.9047071952704987</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9602504978267936</v>
       </c>
       <c r="E36" t="n">
-        <v>2.486172957693245</v>
+        <v>2.492308759701331</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.869965619543145</v>
+        <v>-2.885774153563778</v>
       </c>
       <c r="G36" t="n">
-        <v>0.811853481363051</v>
+        <v>0.830010209989164</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8767190725779188</v>
       </c>
       <c r="E37" t="n">
-        <v>2.181089415342513</v>
+        <v>2.185408873575243</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.829700486226268</v>
+        <v>-2.845623075413453</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7631592442935163</v>
+        <v>0.7816306919888313</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7976252230068673</v>
       </c>
       <c r="E38" t="n">
-        <v>1.935116945299496</v>
+        <v>1.936598442623317</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.729058695197425</v>
+        <v>-2.741885936950113</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7766811856970208</v>
+        <v>0.7952002072051221</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7241913958009357</v>
       </c>
       <c r="E39" t="n">
-        <v>1.648216358163977</v>
+        <v>1.647281959687199</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.577264076851075</v>
+        <v>-2.587657735103539</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6836359566970743</v>
+        <v>0.6994280228594351</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6558074188800631</v>
       </c>
       <c r="E40" t="n">
-        <v>1.410326556929225</v>
+        <v>1.407400157522188</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.482490332653225</v>
+        <v>-2.493682986992229</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6237777315603432</v>
+        <v>0.6381267254015179</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.593613609439177</v>
       </c>
       <c r="E41" t="n">
-        <v>1.122779453876353</v>
+        <v>1.12023669457499</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.376703250795335</v>
+        <v>-2.387306111839923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.592740088161988</v>
+        <v>0.6064968490260404</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5375145523352973</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8539191005176878</v>
+        <v>0.8482248810795679</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.25155179737137</v>
+        <v>-2.258834860172419</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5673490903889663</v>
+        <v>0.5780001351670176</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4863702660471808</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6920431033053696</v>
+        <v>0.6860317251153407</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.12300491553995</v>
+        <v>-2.128051399219363</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4903002509780912</v>
+        <v>0.5013514037200892</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4405516013982748</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5051737766012693</v>
+        <v>0.4980614915897102</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.038072241461429</v>
+        <v>-2.040958996024478</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4298632111191261</v>
+        <v>0.4387296279970127</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3987034857181068</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4321918882629502</v>
+        <v>0.4242165654937926</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.932038751650133</v>
+        <v>-1.935328053859835</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3855451549052587</v>
+        <v>0.3940834344590548</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3601438749658776</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2179426124589529</v>
+        <v>0.2122154573042886</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.876191974804374</v>
+        <v>-1.87751306299021</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2971999746403328</v>
+        <v>0.3029027329679271</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3249524272275948</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06259642601189928</v>
+        <v>0.05599281484474806</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.779276799110461</v>
+        <v>-1.780462484906059</v>
       </c>
       <c r="G47" t="n">
-        <v>0.258349247372835</v>
+        <v>0.264941270047128</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2916885943468193</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01042198156084016</v>
+        <v>0.005770116559282726</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.756722542404994</v>
+        <v>-1.757149486878718</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2249298637317786</v>
+        <v>0.2304526954597323</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.259622668308108</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08645476913043762</v>
+        <v>-0.08962879633223451</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.667893695043407</v>
+        <v>-1.666636038607953</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1865420662579326</v>
+        <v>0.1950285025542051</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.228106659918355</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1884450947755711</v>
+        <v>-0.1886847936015331</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.640504597133359</v>
+        <v>-1.63799294378651</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1400106079081465</v>
+        <v>0.1471576583982803</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1962455321711051</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2880036666825101</v>
+        <v>-0.2853895466619679</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.638963937503893</v>
+        <v>-1.636396171454784</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08535683590610656</v>
+        <v>0.09174331531233548</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1643081972229131</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3656910930419405</v>
+        <v>-0.3604402859358165</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.612594017044691</v>
+        <v>-1.610383664512156</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04465012001926442</v>
+        <v>0.05064686011305133</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1324701936586765</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4716306550690177</v>
+        <v>-0.4676283555881969</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.557368139447861</v>
+        <v>-1.555946414350362</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02926182134491093</v>
+        <v>0.03618930039141537</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1009152421990017</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.543585436987693</v>
+        <v>-0.5386115338688127</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.580109031880413</v>
+        <v>-1.576948422933504</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.003871509498750574</v>
+        <v>0.0004796646091700714</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.07018420423474048</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5851509211873964</v>
+        <v>-0.5764937071016345</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.532970702457262</v>
+        <v>-1.531806973806027</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04505457343413295</v>
+        <v>-0.03877117062227445</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.0402123901541593</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6568214800707073</v>
+        <v>-0.6495786720343241</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.532730393710624</v>
+        <v>-1.534190543810758</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09404035258715322</v>
+        <v>-0.0895702439472667</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.01092142029342284</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7340069417131739</v>
+        <v>-0.7252051764270228</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.596693385001869</v>
+        <v>-1.5971227691583</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1132992078761499</v>
+        <v>-0.1090297631389135</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01758670595522888</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.797932727843138</v>
+        <v>-0.7899952201559387</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.617685634854184</v>
+        <v>-1.616766484394324</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1366122059034909</v>
+        <v>-0.1325056099869462</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04571622298610851</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9503275081354077</v>
+        <v>-0.9454951066135329</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.609615164459453</v>
+        <v>-1.608500839383035</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1473077748909448</v>
+        <v>-0.1424839122585445</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07358821585858413</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.066738188340896</v>
+        <v>-1.061319043127989</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.64731070196519</v>
+        <v>-1.646652597554979</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1792426116047964</v>
+        <v>-0.1717296087086138</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1008858307346746</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.182454168895567</v>
+        <v>-1.177545527289099</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.696190964841133</v>
+        <v>-1.696844799806607</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1843439881451172</v>
+        <v>-0.1782539301877878</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1276261583211656</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.268463352968548</v>
+        <v>-1.263810268125637</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.642877798486585</v>
+        <v>-1.643971386259995</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2134189068056971</v>
+        <v>-0.2081693195409266</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1534094842645697</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.314743523999514</v>
+        <v>-1.313535271138876</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.738226087961933</v>
+        <v>-1.740662111144864</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2359194904916097</v>
+        <v>-0.2299282396839135</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1777626039181637</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.412383895378081</v>
+        <v>-1.412591878328852</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.808324881261264</v>
+        <v>-1.808621302710163</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.245026216116135</v>
+        <v>-0.2374308739285914</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2002376673912943</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.430683955363229</v>
+        <v>-1.429736748552239</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.887754850994163</v>
+        <v>-1.888710596694628</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2700939559304801</v>
+        <v>-0.2623083184917912</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2199987036276023</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.468864989727658</v>
+        <v>-1.469882337416473</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.960520217492237</v>
+        <v>-1.961302745720505</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2958856715881253</v>
+        <v>-0.2885885806115115</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2362885520437318</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.502395378931882</v>
+        <v>-1.505072320782129</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.063243057870145</v>
+        <v>-2.06678120771596</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3278272174294211</v>
+        <v>-0.3205484240731097</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2480121599582995</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.512450531208751</v>
+        <v>-1.517509823222376</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.180612533379481</v>
+        <v>-2.181107788969</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3787714518754793</v>
+        <v>-0.3697543845904361</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2543605345752805</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.507409536815428</v>
+        <v>-1.510422544958563</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.310716542698639</v>
+        <v>-2.31177231539009</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3598876978026827</v>
+        <v>-0.3496026054306802</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2546313532098164</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.491008769817673</v>
+        <v>-1.495055593507896</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.427888403908709</v>
+        <v>-2.425989110921315</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3984554218761694</v>
+        <v>-0.3886247204083442</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2483597333558871</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.57636960821127</v>
+        <v>-1.579045330220164</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.534007892535426</v>
+        <v>-2.529836645027146</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4338064243004869</v>
+        <v>-0.4236671029702271</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2353987688817755</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.606660708701286</v>
+        <v>-1.608572200102214</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.664364409014758</v>
+        <v>-2.659842457117348</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4320852281507038</v>
+        <v>-0.4226137699614833</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2159191380502267</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.580829958120329</v>
+        <v>-1.584640132587974</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.800624347724335</v>
+        <v>-2.795181415605036</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4867438795181578</v>
+        <v>-0.4757628676539858</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.190970094478299</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.523228439487565</v>
+        <v>-1.52394021691733</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.891855062710956</v>
+        <v>-2.885453945208485</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5276463799422361</v>
+        <v>-0.5169508109547821</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1617094160507783</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.497803286156646</v>
+        <v>-1.49570759871134</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.01158432131863</v>
+        <v>-3.006086191378085</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5365823277772719</v>
+        <v>-0.5270944017297791</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.12959770069302</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.372901290289472</v>
+        <v>-1.371721703700641</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.04838083574684</v>
+        <v>-3.044158659862052</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5063064753041751</v>
+        <v>-0.4965227377284594</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.09646020207955566</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.267409410039128</v>
+        <v>-1.264888607882128</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.092623871717468</v>
+        <v>-3.089327860380322</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5229292534282666</v>
+        <v>-0.5117591661543026</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.06309534497655704</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.072051817276725</v>
+        <v>-1.068705182523408</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.114215673595026</v>
+        <v>-3.110672949344135</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5172813879615795</v>
+        <v>-0.5078410357268731</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.02997175600284626</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8696362224429931</v>
+        <v>-0.8635791002022082</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.175704216700705</v>
+        <v>-3.173993999123103</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5294560145901476</v>
+        <v>-0.5172795581995493</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.002490536551394451</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6888856199680294</v>
+        <v>-0.6841752025815041</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.208024523282261</v>
+        <v>-3.211532177094239</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4806062477480421</v>
+        <v>-0.4683425727006689</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.0344208724532058</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3987805095968762</v>
+        <v>-0.3916279698206517</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.251566150474628</v>
+        <v>-3.254733163588643</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4279853413616034</v>
+        <v>-0.4153038706506578</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06553632108047981</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1125746221121732</v>
+        <v>-0.1024035849067226</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.209630444424139</v>
+        <v>-3.211470270145549</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3547887609450689</v>
+        <v>-0.3420188517359949</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.09496835267564215</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1070382961231465</v>
+        <v>0.1178162044019615</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.232267650341643</v>
+        <v>-3.232246913038633</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3004655659498264</v>
+        <v>-0.2855639839755179</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1208370858833238</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4130647758401311</v>
+        <v>0.4262000275345773</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.127157885395282</v>
+        <v>-3.125649856522022</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2430915477294901</v>
+        <v>-0.230798596489633</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1408603796454526</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6332924941176129</v>
+        <v>0.6456470473458216</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.035693265829127</v>
+        <v>-3.030242099780692</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2004562626627706</v>
+        <v>-0.1880035122056055</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1530755434970283</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9493070348370236</v>
+        <v>0.9633163028612498</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.989052326717865</v>
+        <v>-2.98490273139361</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1906682556423178</v>
+        <v>-0.1798141072789093</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1552530253100239</v>
       </c>
       <c r="E87" t="n">
-        <v>1.158434806718367</v>
+        <v>1.17304301684716</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.869319713546469</v>
+        <v>-2.866288407783031</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1727170702842689</v>
+        <v>-0.1632114565371505</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.145741283826763</v>
       </c>
       <c r="E88" t="n">
-        <v>1.314584258696698</v>
+        <v>1.328794190623575</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.707912135413893</v>
+        <v>-2.705143095541457</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1282459239805378</v>
+        <v>-0.1202870690696524</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1243444884309245</v>
       </c>
       <c r="E89" t="n">
-        <v>1.417346133997918</v>
+        <v>1.42750009342442</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.467125210964588</v>
+        <v>-2.466076147400581</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1305532539006757</v>
+        <v>-0.1230676974349468</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0915120386787031</v>
       </c>
       <c r="E90" t="n">
-        <v>1.49115080532917</v>
+        <v>1.499906826564565</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.201311411386279</v>
+        <v>-2.199114477108633</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1186042979225045</v>
+        <v>-0.1124312907531374</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05024202884811784</v>
       </c>
       <c r="E91" t="n">
-        <v>1.51925229058966</v>
+        <v>1.527359966145672</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.829318350954932</v>
+        <v>-1.825871689210629</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1003463224640514</v>
+        <v>-0.09708568652615628</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.002650050110389951</v>
       </c>
       <c r="E92" t="n">
-        <v>1.538594095090695</v>
+        <v>1.547139693692612</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.523668802216178</v>
+        <v>-1.520020256727871</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07652770019568622</v>
+        <v>-0.07312068329537158</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0480247390707768</v>
       </c>
       <c r="E93" t="n">
-        <v>1.528576147975108</v>
+        <v>1.539771241996819</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.178687298795971</v>
+        <v>-1.173266933741711</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04787057719867872</v>
+        <v>-0.04491856112321813</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.09837723282154036</v>
       </c>
       <c r="E94" t="n">
-        <v>1.524491509202926</v>
+        <v>1.534580207117016</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8596188852480831</v>
+        <v>-0.8533110856091546</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06885245839948867</v>
+        <v>-0.0669098610440461</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1448119796730178</v>
       </c>
       <c r="E95" t="n">
-        <v>1.447296288829631</v>
+        <v>1.453307057098984</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.632225818860165</v>
+        <v>-0.62896518292227</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1372599416621973</v>
+        <v>-0.1375795400968133</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1831790185604729</v>
       </c>
       <c r="E96" t="n">
-        <v>1.350184718677806</v>
+        <v>1.355744145646364</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3670542657544724</v>
+        <v>-0.3647585243271927</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1956726547950356</v>
+        <v>-0.1956500877299959</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2099247555247068</v>
       </c>
       <c r="E97" t="n">
-        <v>1.248568274407519</v>
+        <v>1.250637125343048</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1835120563420328</v>
+        <v>-0.1842634786157864</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2226762828373791</v>
+        <v>-0.223889415063431</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2264750523907684</v>
       </c>
       <c r="E98" t="n">
-        <v>1.156613583577598</v>
+        <v>1.155602945016226</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06546617880218344</v>
+        <v>-0.06985699775409272</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2780345132210631</v>
+        <v>-0.2802363268641236</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2348963301099544</v>
       </c>
       <c r="E99" t="n">
-        <v>1.079545226705067</v>
+        <v>1.076892071761213</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1657809763421055</v>
+        <v>0.1613828383420752</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3216237142262166</v>
+        <v>-0.3224977305559965</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2436397432031619</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9059581425785089</v>
+        <v>0.9028280296654378</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2211697027596269</v>
+        <v>0.2190544978526646</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3074357394437032</v>
+        <v>-0.3103224940067518</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2555937253479562</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7736041358828268</v>
+        <v>0.7718890389398113</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2650931402956382</v>
+        <v>0.2657549042299099</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3568460233877402</v>
+        <v>-0.3602774371151247</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2809145709213803</v>
       </c>
       <c r="E102" t="n">
-        <v>0.652102447788523</v>
+        <v>0.6500671424902147</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2648272148805761</v>
+        <v>0.2658695693171386</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3363160934084005</v>
+        <v>-0.3397938611072179</v>
       </c>
     </row>
   </sheetData>
